--- a/server/xlsx/1-3.xlsx
+++ b/server/xlsx/1-3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28020" windowHeight="13200"/>
+    <workbookView windowWidth="27880" windowHeight="13040" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="10万以内" sheetId="9" r:id="rId1"/>
@@ -19,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>月份</t>
   </si>
   <si>
     <t>销量</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
   </si>
   <si>
     <t>2019-09</t>
@@ -62,18 +56,33 @@
   <si>
     <t>2020-06</t>
   </si>
+  <si>
+    <t>2020-07</t>
+  </si>
+  <si>
+    <t>2020-08</t>
+  </si>
+  <si>
+    <t>2020-09</t>
+  </si>
+  <si>
+    <t>2020-10</t>
+  </si>
+  <si>
+    <t>2020-11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,14 +91,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="华文宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFB5CEA8"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -116,8 +119,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,16 +150,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,6 +181,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -163,38 +228,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -203,37 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +257,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -266,169 +281,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +450,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,15 +483,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,17 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -539,168 +531,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1023,15 +1021,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.06666666666667" style="5"/>
+    <col min="1" max="1" width="9.06666666666667" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1046,96 +1044,120 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>636817</v>
+      <c r="B2" s="3">
+        <v>611502</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>609163</v>
+      <c r="B3" s="3">
+        <v>622224</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>587742</v>
+      <c r="B4" s="3">
+        <v>665547</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>463207</v>
+      <c r="B5" s="3">
+        <v>666893</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>876721</v>
+      <c r="B6" s="3">
+        <v>556266</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>727287</v>
+      <c r="B7" s="3">
+        <v>69602</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>270200</v>
+      <c r="B8" s="3">
+        <v>331401</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>126633</v>
+      <c r="B9" s="3">
+        <v>521441</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>681923</v>
+      <c r="B10" s="3">
+        <v>564287</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>623000</v>
+      <c r="B11" s="3">
+        <v>576878</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>593125</v>
+      <c r="B12" s="3">
+        <v>545436</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>600072</v>
+      <c r="B13" s="3">
+        <v>605681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>730176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>747759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>846378</v>
       </c>
     </row>
   </sheetData>
@@ -1147,10 +1169,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -1167,96 +1189,120 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>866592</v>
+      <c r="B2" s="3">
+        <v>515407</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>848202</v>
+      <c r="B3" s="3">
+        <v>542212</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>778984</v>
+      <c r="B4" s="3">
+        <v>590422</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>539381</v>
+      <c r="B5" s="3">
+        <v>655854</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>1146210</v>
+      <c r="B6" s="3">
+        <v>458626</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>935973</v>
+      <c r="B7" s="3">
+        <v>73233</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>430300</v>
+      <c r="B8" s="3">
+        <v>306744</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>129769</v>
+      <c r="B9" s="3">
+        <v>421829</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>871875</v>
+      <c r="B10" s="3">
+        <v>440413</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>831152</v>
+      <c r="B11" s="3">
+        <v>466197</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>774773</v>
+      <c r="B12" s="3">
+        <v>439288</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>799678</v>
+      <c r="B13" s="3">
+        <v>506369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>620428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>661886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>749174</v>
       </c>
     </row>
   </sheetData>
@@ -1268,10 +1314,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -1288,96 +1334,120 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>765628</v>
+      <c r="B2" s="3">
+        <v>639618</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>726426</v>
+      <c r="B3" s="3">
+        <v>634489</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>660434</v>
+      <c r="B4" s="3">
+        <v>698972</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>413080</v>
+      <c r="B5" s="3">
+        <v>667341</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>938194</v>
+      <c r="B6" s="3">
+        <v>589784</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>820707</v>
+      <c r="B7" s="3">
+        <v>54391</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>394098</v>
+      <c r="B8" s="3">
+        <v>312998</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>85519</v>
+      <c r="B9" s="3">
+        <v>563446</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>772697</v>
+      <c r="B10" s="3">
+        <v>626058</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>632570</v>
+      <c r="B11" s="3">
+        <v>649202</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>625944</v>
+      <c r="B12" s="3">
+        <v>639946</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>652542</v>
+      <c r="B13" s="3">
+        <v>635753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>766912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>746468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>819882</v>
       </c>
     </row>
   </sheetData>
@@ -1389,10 +1459,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -1409,96 +1479,120 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>414682</v>
+      <c r="B2" s="3">
+        <v>335812</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>367063</v>
+      <c r="B3" s="3">
+        <v>335591</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>340520</v>
+      <c r="B4" s="3">
+        <v>382283</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>193966</v>
+      <c r="B5" s="3">
+        <v>382668</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>418419</v>
+      <c r="B6" s="3">
+        <v>333292</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>363723</v>
+      <c r="B7" s="3">
+        <v>30589</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>247298</v>
+      <c r="B8" s="3">
+        <v>173218</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>35601</v>
+      <c r="B9" s="3">
+        <v>310220</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>352077</v>
+      <c r="B10" s="3">
+        <v>349390</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>326291</v>
+      <c r="B11" s="3">
+        <v>377884</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>303161</v>
+      <c r="B12" s="3">
+        <v>384038</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>313224</v>
+      <c r="B13" s="3">
+        <v>370900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>454755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>426064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>470060</v>
       </c>
     </row>
   </sheetData>
@@ -1510,10 +1604,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -1530,96 +1624,120 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>213720</v>
+      <c r="B2" s="3">
+        <v>185265</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>201959</v>
+      <c r="B3" s="3">
+        <v>177032</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>191418</v>
+      <c r="B4" s="3">
+        <v>189063</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>134471</v>
+      <c r="B5" s="3">
+        <v>203499</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>210972</v>
+      <c r="B6" s="3">
+        <v>162695</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>185445</v>
+      <c r="B7" s="3">
+        <v>25093</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>115500</v>
+      <c r="B8" s="3">
+        <v>121157</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>28053</v>
+      <c r="B9" s="3">
+        <v>163786</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>177609</v>
+      <c r="B10" s="3">
+        <v>193338</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>160127</v>
+      <c r="B11" s="3">
+        <v>203293</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>151554</v>
+      <c r="B12" s="3">
+        <v>203860</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>177254</v>
+      <c r="B13" s="3">
+        <v>211058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>224488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>200657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>223804</v>
       </c>
     </row>
   </sheetData>
@@ -1631,10 +1749,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -1651,96 +1769,120 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>100048</v>
+      <c r="B2" s="3">
+        <v>82968</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>92859</v>
+      <c r="B3" s="3">
+        <v>76993</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>72306</v>
+      <c r="B4" s="3">
+        <v>79074</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>76351</v>
+      <c r="B5" s="3">
+        <v>79163</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>83888</v>
+      <c r="B6" s="3">
+        <v>74160</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>71887</v>
+      <c r="B7" s="3">
+        <v>14780</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>43400</v>
+      <c r="B8" s="3">
+        <v>61177</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>14212</v>
+      <c r="B9" s="3">
+        <v>68423</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>76351</v>
+      <c r="B10" s="3">
+        <v>83575</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>73688</v>
+      <c r="B11" s="3">
+        <v>91332</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>61507</v>
+      <c r="B12" s="3">
+        <v>92414</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>72487</v>
+      <c r="B13" s="3">
+        <v>93645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>93482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>87775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>101170</v>
       </c>
     </row>
   </sheetData>
